--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B50D696-4945-4CFF-89C2-08162611B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD95E648-CD5D-4DC9-987B-513B6C30F4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="3860" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>Year</t>
   </si>
@@ -91,12 +91,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -290,6 +284,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -567,6 +570,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,15 +582,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -617,6 +614,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -638,9 +644,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -909,782 +915,816 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2004</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="11" t="str">
-        <f t="shared" ref="G3" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11" t="str">
-        <f t="shared" ref="G4:G5" si="1">IF(OR(AND(F4&gt;1,F4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11" t="str">
+        <f t="shared" ref="H4:H5" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2006</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11" t="str">
+        <v>36</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2007</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="11" t="str">
-        <f t="shared" ref="G6:G17" si="2">IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11" t="str">
+        <f t="shared" ref="H6:H17" si="2">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2008</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="11" t="str">
+        <v>38</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2009</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11" t="str">
+        <v>39</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2010</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>40</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2011</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>41</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2012</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11" t="str">
+        <v>5</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2013</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="11" t="str">
+        <v>42</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2014</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11" t="str">
+        <v>44</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2014</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="11" t="str">
+        <v>43</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2015</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="11" t="str">
+        <v>45</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="11" t="str">
+        <v>46</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="11" t="str">
+        <v>47</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2016</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="11" t="str">
-        <f t="shared" ref="G18:G24" si="3">IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f t="shared" ref="H18:H24" si="3">IF(OR(AND(G18&gt;1,G18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2017</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="11" t="str">
+        <v>49</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>2017</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="11" t="str">
+        <v>51</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>2018</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="11" t="str">
+        <v>52</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>2019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="11" t="str">
+        <v>53</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>2019</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="11" t="str">
+        <v>54</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>2020</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="11" t="str">
-        <f t="shared" ref="G25" si="4">IF(OR(AND(F25&gt;1,F25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="11" t="str">
+        <f t="shared" ref="H25" si="4">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>2020</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="11" t="str">
-        <f t="shared" ref="G26:G27" si="5">IF(OR(AND(F26&gt;1,F26&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="11" t="str">
+        <f t="shared" ref="H26:H27" si="5">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>2021</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="11" t="str">
+        <v>59</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>2021</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="11" t="str">
-        <f t="shared" ref="G28:G29" si="6">IF(OR(AND(F28&gt;1,F28&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f t="shared" ref="H28:H29" si="6">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>2022</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="11" t="str">
+        <v>62</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>2022</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="11" t="str">
-        <f t="shared" ref="G30:G32" si="7">IF(OR(AND(F30&gt;1,F30&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="11" t="str">
+        <f t="shared" ref="H30:H32" si="7">IF(OR(AND(G30&gt;1,G30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>2023</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="11" t="str">
+        <v>66</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>2023</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="11" t="str">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -1693,14 +1733,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F25">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="G3:G25">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F25">
+  <conditionalFormatting sqref="G3:G25">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1712,12 +1752,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F26))))</formula>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="G26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1729,12 +1769,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27 F29 F31">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
+  <conditionalFormatting sqref="G27 G29 G31">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29 F27 F31">
+  <conditionalFormatting sqref="G27 G29 G31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1746,12 +1786,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28 F30 F32">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+  <conditionalFormatting sqref="G28 G30 G32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30 F28 F32">
+  <conditionalFormatting sqref="G28 G30 G32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1786,13 +1826,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1800,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1811,10 +1851,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1822,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1833,10 +1873,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1844,10 +1884,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1855,10 +1895,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD95E648-CD5D-4DC9-987B-513B6C30F4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C881088D-C91B-40E1-880E-016A17E2144C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -293,13 +293,19 @@
   </si>
   <si>
     <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>50th Anniversary - Declaration of Civil Rights and the Basic Principles of the Legal System</t>
+  </si>
+  <si>
+    <t>59.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -363,6 +369,10 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -560,6 +570,9 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,9 +583,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,6 +592,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -614,15 +633,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -644,9 +654,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -915,19 +925,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="55.453125" style="12" customWidth="1"/>
     <col min="3" max="4" width="24.81640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="24.6328125" style="12" customWidth="1"/>
     <col min="6" max="6" width="12.453125" style="12" customWidth="1"/>
@@ -938,17 +948,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
@@ -958,8 +968,8 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>69</v>
       </c>
@@ -1726,6 +1736,31 @@
       </c>
       <c r="H32" s="11" t="str">
         <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="11" t="str">
+        <f t="shared" ref="H33" si="8">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1735,8 +1770,9 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G3:G25">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1753,7 +1789,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1770,11 +1806,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27 G29 G31">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27 G29 G31">
+  <conditionalFormatting sqref="G29 G27 G31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1786,12 +1822,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28 G30 G32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G28 G30 G32:G33">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28 G30 G32">
+  <conditionalFormatting sqref="G30 G28 G32:G33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C881088D-C91B-40E1-880E-016A17E2144C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB0D19F-C898-4905-9E88-86A9722A54F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
   <si>
     <t>Year</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>59.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530th anniversary of the death of Ghirlandaio	</t>
   </si>
 </sst>
 </file>
@@ -925,13 +928,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1761,6 +1764,29 @@
       </c>
       <c r="H33" s="11" t="str">
         <f t="shared" ref="H33" si="8">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="11" t="str">
+        <f t="shared" ref="H34" si="9">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1810,7 +1836,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29 G27 G31">
+  <conditionalFormatting sqref="G27 G29 G31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1822,12 +1848,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28 G30 G32:G33">
+  <conditionalFormatting sqref="G28 G30 G32:G34">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30 G28 G32:G33">
+  <conditionalFormatting sqref="G28 G30 G32:G34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB0D19F-C898-4905-9E88-86A9722A54F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32300DF-8D60-4AF8-B537-CEE4E3CA3E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="890" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>2€</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>10 Years of Euro Cash</t>
@@ -308,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -376,6 +373,15 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -416,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -509,13 +515,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -538,9 +632,6 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,6 +667,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,6 +681,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -594,7 +733,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -603,30 +742,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -934,18 +1049,18 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B32:B33"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="55.453125" style="12" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="55.453125" style="11" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="11" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
@@ -955,9 +1070,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="C1" s="22"/>
       <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
@@ -965,7 +1080,7 @@
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4"/>
@@ -974,43 +1089,43 @@
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2004</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11" t="str">
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="str">
         <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -1020,22 +1135,22 @@
         <v>2005</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="11" t="str">
+        <v>16</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="str">
         <f t="shared" ref="H4:H5" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -1045,73 +1160,73 @@
         <v>2006</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="32">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="str">
+        <f t="shared" ref="H6:H17" si="2">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="11" t="str">
-        <f t="shared" ref="H6:H17" si="2">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="11" t="str">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1121,22 +1236,22 @@
         <v>2009</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="11" t="str">
+        <v>17</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1146,73 +1261,73 @@
         <v>2010</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="32">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="11" t="str">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1222,22 +1337,22 @@
         <v>2013</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="11" t="str">
+        <v>17</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1247,72 +1362,72 @@
         <v>2014</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="32">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="21" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="11" t="str">
+      <c r="G15" s="42">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1322,22 +1437,22 @@
         <v>2015</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="11" t="str">
+        <v>17</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1347,72 +1462,72 @@
         <v>2016</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="32">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="21" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="G18" s="37">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="str">
+        <f t="shared" ref="H18:H24" si="3">IF(OR(AND(G18&gt;1,G18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="11" t="str">
-        <f t="shared" ref="H18:H24" si="3">IF(OR(AND(G18&gt;1,G18&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="11" t="str">
+      <c r="G19" s="42">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1422,22 +1537,22 @@
         <v>2017</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="11" t="str">
+        <v>17</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="23">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1447,72 +1562,72 @@
         <v>2018</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="32">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="11" t="str">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="8" t="s">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="11" t="str">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="42">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1522,22 +1637,22 @@
         <v>2019</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="11" t="str">
+        <v>17</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="23">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1547,72 +1662,72 @@
         <v>2020</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10" t="str">
+        <f t="shared" ref="H25" si="4">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="32">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="37">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10" t="str">
+        <f t="shared" ref="H26:H27" si="5">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="11" t="str">
-        <f t="shared" ref="H25" si="4">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="11" t="str">
-        <f t="shared" ref="H26:H27" si="5">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="11" t="str">
+      <c r="G27" s="42">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -1622,22 +1737,22 @@
         <v>2021</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="11" t="str">
+        <v>17</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="23">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10" t="str">
         <f t="shared" ref="H28:H29" si="6">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -1647,72 +1762,72 @@
         <v>2022</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="G29" s="23">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="32">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="34"/>
+      <c r="D30" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="37">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10" t="str">
+        <f t="shared" ref="H30:H32" si="7">IF(OR(AND(G30&gt;1,G30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="38">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="11" t="str">
-        <f t="shared" ref="H30:H32" si="7">IF(OR(AND(G30&gt;1,G30&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
-        <v>2023</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="11" t="str">
+      <c r="G31" s="42">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -1722,22 +1837,22 @@
         <v>2023</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="11" t="str">
+        <v>17</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -1747,45 +1862,45 @@
         <v>2024</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="G33" s="23">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10" t="str">
+        <f t="shared" ref="H33" si="8">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="32">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="11" t="str">
-        <f t="shared" ref="H33" si="8">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
-        <v>2024</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="11" t="str">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10" t="str">
         <f t="shared" ref="H34" si="9">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
@@ -1797,63 +1912,12 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G25">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G3:G34">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27 G29 G31">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27 G29 G31">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28 G30 G32:G34">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28 G30 G32:G34">
+  <conditionalFormatting sqref="G3:G34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1887,80 +1951,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32300DF-8D60-4AF8-B537-CEE4E3CA3E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D1954-370B-44EB-B108-C084589F1796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="890" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -670,6 +670,51 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -681,51 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1049,7 +1049,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1066,17 +1066,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="22"/>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1086,8 +1086,8 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="5" t="s">
         <v>68</v>
       </c>
@@ -1106,10 +1106,10 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28">
+      <c r="A3" s="24">
         <v>2004</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="21"/>
@@ -1119,10 +1119,10 @@
       <c r="E3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="27">
         <v>0</v>
       </c>
       <c r="H3" s="10" t="str">
@@ -1182,23 +1182,23 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32">
+      <c r="A6" s="28">
         <v>2007</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="35" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="33">
         <v>0</v>
       </c>
       <c r="H6" s="10" t="str">
@@ -1207,24 +1207,24 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38">
+      <c r="A7" s="34">
         <v>2008</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="41" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="42">
-        <v>0</v>
+      <c r="G7" s="38">
+        <v>1</v>
       </c>
       <c r="H7" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1249,7 +1249,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1274,7 +1274,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1283,24 +1283,24 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="32">
+      <c r="A10" s="28">
         <v>2011</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="36" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="37">
-        <v>0</v>
+      <c r="G10" s="33">
+        <v>1</v>
       </c>
       <c r="H10" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1308,24 +1308,24 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38">
+      <c r="A11" s="34">
         <v>2012</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="41" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="42">
-        <v>0</v>
+      <c r="G11" s="38">
+        <v>1</v>
       </c>
       <c r="H11" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1350,7 +1350,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1383,24 +1383,24 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="32">
+      <c r="A14" s="28">
         <v>2014</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="36" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="37">
-        <v>0</v>
+      <c r="G14" s="33">
+        <v>1</v>
       </c>
       <c r="H14" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1408,24 +1408,24 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38">
+      <c r="A15" s="34">
         <v>2015</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="41" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="42">
-        <v>0</v>
+      <c r="G15" s="38">
+        <v>1</v>
       </c>
       <c r="H15" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1450,7 +1450,7 @@
         <v>28</v>
       </c>
       <c r="G16" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1475,7 +1475,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1483,24 +1483,24 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="32">
+      <c r="A18" s="28">
         <v>2016</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="36" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="37">
-        <v>0</v>
+      <c r="G18" s="33">
+        <v>1</v>
       </c>
       <c r="H18" s="10" t="str">
         <f t="shared" ref="H18:H24" si="3">IF(OR(AND(G18&gt;1,G18&lt;&gt;"-")),"Can exchange","")</f>
@@ -1508,23 +1508,23 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38">
+      <c r="A19" s="34">
         <v>2017</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="41" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="38">
         <v>0</v>
       </c>
       <c r="H19" s="10" t="str">
@@ -1583,24 +1583,24 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="32">
+      <c r="A22" s="28">
         <v>2018</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="36" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="37">
-        <v>0</v>
+      <c r="G22" s="33">
+        <v>1</v>
       </c>
       <c r="H22" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1608,23 +1608,23 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38">
+      <c r="A23" s="34">
         <v>2019</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="41" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="38">
         <v>0</v>
       </c>
       <c r="H23" s="10" t="str">
@@ -1650,7 +1650,7 @@
         <v>57</v>
       </c>
       <c r="G24" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="10" t="str">
         <f t="shared" si="3"/>
@@ -1675,7 +1675,7 @@
         <v>57</v>
       </c>
       <c r="G25" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="10" t="str">
         <f t="shared" ref="H25" si="4">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
@@ -1683,24 +1683,24 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="32">
+      <c r="A26" s="28">
         <v>2020</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="36" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="37">
-        <v>0</v>
+      <c r="G26" s="33">
+        <v>1</v>
       </c>
       <c r="H26" s="10" t="str">
         <f t="shared" ref="H26:H27" si="5">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
@@ -1708,24 +1708,24 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38">
+      <c r="A27" s="34">
         <v>2021</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="41" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="42">
-        <v>0</v>
+      <c r="G27" s="38">
+        <v>1</v>
       </c>
       <c r="H27" s="10" t="str">
         <f t="shared" si="5"/>
@@ -1750,7 +1750,7 @@
         <v>59</v>
       </c>
       <c r="G28" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="10" t="str">
         <f t="shared" ref="H28:H29" si="6">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
@@ -1783,23 +1783,23 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="32">
+      <c r="A30" s="28">
         <v>2022</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="36" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="33">
         <v>0</v>
       </c>
       <c r="H30" s="10" t="str">
@@ -1808,23 +1808,23 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="38">
+      <c r="A31" s="34">
         <v>2023</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="41" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="38">
         <v>0</v>
       </c>
       <c r="H31" s="10" t="str">
@@ -1883,21 +1883,23 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="32">
+      <c r="A34" s="28">
         <v>2024</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37">
+      <c r="C34" s="30"/>
+      <c r="D34" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="33">
         <v>0</v>
       </c>
       <c r="H34" s="10" t="str">

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161D1954-370B-44EB-B108-C084589F1796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A760B50A-8B67-43EB-91F6-1DACB2E82129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1049,7 +1049,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1375,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="10" t="str">
         <f t="shared" si="2"/>
@@ -1825,7 +1825,7 @@
         <v>64</v>
       </c>
       <c r="G31" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="10" t="str">
         <f t="shared" si="7"/>
@@ -1850,7 +1850,7 @@
         <v>64</v>
       </c>
       <c r="G32" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="10" t="str">
         <f t="shared" si="7"/>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A760B50A-8B67-43EB-91F6-1DACB2E82129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327B052-B7BE-48CC-A36D-A491D4A5011D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,7 +1049,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1900,7 +1900,7 @@
         <v>64</v>
       </c>
       <c r="G34" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="10" t="str">
         <f t="shared" ref="H34" si="9">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-")),"Can exchange","")</f>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E327B052-B7BE-48CC-A36D-A491D4A5011D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E311E37F-52AF-4C6D-95E9-8007B9E1DFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
   <si>
     <t>Year</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t xml:space="preserve">530th anniversary of the death of Ghirlandaio	</t>
+  </si>
+  <si>
+    <t>Holy Year 2025 - Pilgrims of hope</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -742,6 +745,22 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1043,13 +1062,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1903,7 +1922,49 @@
         <v>1</v>
       </c>
       <c r="H34" s="10" t="str">
-        <f t="shared" ref="H34" si="9">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="H34:H36" si="9">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="34">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="38">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="23">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10" t="str">
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1915,11 +1976,45 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G3:G34">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G34">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E311E37F-52AF-4C6D-95E9-8007B9E1DFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE160BF-B70F-4B4F-B31B-04849D4F1AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6270" yWindow="4320" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
   <si>
     <t>Year</t>
   </si>
@@ -286,9 +289,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -302,13 +302,49 @@
   </si>
   <si>
     <t>Holy Year 2025 - Pilgrims of hope</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Positioning</t>
+  </si>
+  <si>
+    <t>$Album_page</t>
+  </si>
+  <si>
+    <t>1st page</t>
+  </si>
+  <si>
+    <t>2nd page</t>
+  </si>
+  <si>
+    <t>3rd page</t>
+  </si>
+  <si>
+    <t>4th page</t>
+  </si>
+  <si>
+    <t>5th page</t>
+  </si>
+  <si>
+    <t>6th page</t>
+  </si>
+  <si>
+    <t>7th page</t>
+  </si>
+  <si>
+    <t>8th page</t>
+  </si>
+  <si>
+    <t>9th page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -386,8 +422,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,8 +468,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -606,20 +704,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,6 +833,63 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1062,916 +1235,975 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="55.453125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="9" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f t="shared" ref="I3:I36" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="26">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="32">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="36">
+        <v>1</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="26">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="32">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="36">
+        <v>1</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="26">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="32">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="36">
+        <v>1</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="26">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="32">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="26">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="31">
+        <v>1</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="32">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="36">
+        <v>0</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="26">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="32">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="36">
+        <v>1</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="26">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="32">
+        <v>2023</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="36">
+        <v>1</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1</v>
+      </c>
+      <c r="H32" s="52"/>
+      <c r="I32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24">
-        <v>2004</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="27">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1</v>
+      </c>
+      <c r="H33" s="52"/>
+      <c r="I33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="26">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="31">
+        <v>1</v>
+      </c>
+      <c r="H34" s="52"/>
+      <c r="I34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="32">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="36">
+        <v>1</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="21">
         <v>0</v>
       </c>
-      <c r="H3" s="10" t="str">
-        <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>2005</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="str">
-        <f t="shared" ref="H4:H5" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="28">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="33">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="str">
-        <f t="shared" ref="H6:H17" si="2">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="34">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="38">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>2009</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="23">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="23">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="28">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="33">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="34">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="38">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="23">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="23">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="28">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="33">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="34">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="38">
-        <v>1</v>
-      </c>
-      <c r="H15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="23">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="23">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="28">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="33">
-        <v>1</v>
-      </c>
-      <c r="H18" s="10" t="str">
-        <f t="shared" ref="H18:H24" si="3">IF(OR(AND(G18&gt;1,G18&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="38">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="23">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="23">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="28">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="33">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="34">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="38">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="23">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="23">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10" t="str">
-        <f t="shared" ref="H25" si="4">IF(OR(AND(G25&gt;1,G25&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="28">
-        <v>2020</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="33">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10" t="str">
-        <f t="shared" ref="H26:H27" si="5">IF(OR(AND(G26&gt;1,G26&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="34">
-        <v>2021</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="38">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
-        <v>2021</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="23">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10" t="str">
-        <f t="shared" ref="H28:H29" si="6">IF(OR(AND(G28&gt;1,G28&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
-        <v>2022</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="23">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="28">
-        <v>2022</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="33">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10" t="str">
-        <f t="shared" ref="H30:H32" si="7">IF(OR(AND(G30&gt;1,G30&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="34">
-        <v>2023</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="38">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
-        <v>2023</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="23">
-        <v>1</v>
-      </c>
-      <c r="H32" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>2024</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="23">
-        <v>1</v>
-      </c>
-      <c r="H33" s="10" t="str">
-        <f t="shared" ref="H33" si="8">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="28">
-        <v>2024</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="33">
-        <v>1</v>
-      </c>
-      <c r="H34" s="10" t="str">
-        <f t="shared" ref="H34:H36" si="9">IF(OR(AND(G34&gt;1,G34&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34">
-        <v>2025</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="38">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>2025</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+      <c r="H36" s="54"/>
+      <c r="I36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H37" s="54"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H38" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2048,79 +2280,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE160BF-B70F-4B4F-B31B-04849D4F1AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0491B0D2-88FA-4D80-AA30-5C3715DC0E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6270" yWindow="4320" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -638,49 +638,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -724,13 +681,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -807,100 +840,109 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,15 +952,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -943,6 +976,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -964,9 +1006,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1241,7 +1283,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11:H13"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1257,28 +1299,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="59"/>
+      <c r="D1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="52"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1296,7 +1338,7 @@
       <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1320,7 +1362,7 @@
       <c r="G3" s="25">
         <v>0</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="39" t="s">
         <v>77</v>
       </c>
       <c r="I3" s="8" t="str">
@@ -1328,849 +1370,849 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="53">
         <v>2005</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="58">
         <v>0</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="26">
         <v>2006</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="61">
+        <v>1</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="59">
+        <v>1</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="53">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="58">
+        <v>1</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="30">
+        <v>1</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="61">
+        <v>1</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="59">
+        <v>1</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="53">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="58">
+        <v>1</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26">
+        <v>2014</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="30">
+        <v>1</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="61">
+        <v>1</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="59">
+        <v>1</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="53">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="58">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="26">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="30">
+        <v>1</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="61">
+        <v>1</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="59">
+        <v>1</v>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="53">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="58">
+        <v>1</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="26">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="30">
+        <v>1</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="61">
+        <v>1</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="59">
         <v>0</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="31">
+      <c r="H23" s="32"/>
+      <c r="I23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="53">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="58">
+        <v>1</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="26">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="30">
+        <v>1</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="61">
+        <v>1</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="59">
+        <v>1</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="53">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="58">
+        <v>1</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="26">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="30">
         <v>0</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="36">
-        <v>1</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>2009</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="21">
-        <v>1</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>2010</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="21">
-        <v>1</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="31">
-        <v>1</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="32">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="36">
-        <v>1</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>2014</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="21">
-        <v>1</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="31">
-        <v>1</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="32">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="36">
-        <v>1</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="21">
-        <v>1</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="21">
-        <v>1</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="26">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="31">
-        <v>1</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="36">
+      <c r="H29" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="61">
         <v>0</v>
       </c>
-      <c r="H19" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="21">
-        <v>1</v>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="31">
-        <v>1</v>
-      </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="32">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="36">
-        <v>0</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="21">
-        <v>1</v>
-      </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="21">
-        <v>1</v>
-      </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="26">
-        <v>2020</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="31">
-        <v>1</v>
-      </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="32">
-        <v>2021</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="36">
-        <v>1</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>2021</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="21">
-        <v>1</v>
-      </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
-        <v>2022</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="26">
-        <v>2022</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="31">
-        <v>0</v>
-      </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="32">
+      <c r="A31" s="5">
         <v>2023</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="35" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="36">
-        <v>1</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>84</v>
-      </c>
+      <c r="G31" s="59">
+        <v>1</v>
+      </c>
+      <c r="H31" s="45"/>
       <c r="I31" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+    <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="53">
         <v>2023</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="18" t="s">
+      <c r="C32" s="55"/>
+      <c r="D32" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="21">
-        <v>1</v>
-      </c>
-      <c r="H32" s="52"/>
+      <c r="G32" s="58">
+        <v>1</v>
+      </c>
+      <c r="H32" s="45"/>
       <c r="I32" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="26">
         <v>2024</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="18" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="21">
-        <v>1</v>
-      </c>
-      <c r="H33" s="52"/>
+      <c r="G33" s="30">
+        <v>1</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>85</v>
+      </c>
       <c r="I33" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="26">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
         <v>2024</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="29" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="31">
-        <v>1</v>
-      </c>
-      <c r="H34" s="52"/>
+      <c r="G34" s="61">
+        <v>1</v>
+      </c>
+      <c r="H34" s="47"/>
       <c r="I34" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32">
+      <c r="A35" s="5">
         <v>2025</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="35" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="36">
-        <v>1</v>
-      </c>
-      <c r="H35" s="53" t="s">
-        <v>85</v>
-      </c>
+      <c r="G35" s="59">
+        <v>1</v>
+      </c>
+      <c r="H35" s="47"/>
       <c r="I35" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2188,17 +2230,17 @@
       <c r="G36" s="21">
         <v>0</v>
       </c>
-      <c r="H36" s="54"/>
+      <c r="H36" s="47"/>
       <c r="I36" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H37" s="54"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H38" s="54"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -2208,7 +2250,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G3:G34">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2225,7 +2267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2242,7 +2284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0491B0D2-88FA-4D80-AA30-5C3715DC0E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3630037B-C127-4441-8505-E5AD7E4DF9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5250" yWindow="2150" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -903,18 +903,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,6 +931,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -952,6 +952,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -976,15 +985,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1006,9 +1006,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1283,7 +1283,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1299,15 +1299,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="52"/>
+      <c r="D1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="62"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="31" t="s">
         <v>67</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>22</v>
       </c>
       <c r="G3" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="39" t="s">
         <v>77</v>
@@ -1371,24 +1371,24 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="53">
+      <c r="A4" s="49">
         <v>2005</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="56" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="58">
-        <v>0</v>
+      <c r="G4" s="54">
+        <v>1</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="8" t="str">
@@ -1416,7 +1416,7 @@
       <c r="G5" s="30">
         <v>1</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="58" t="s">
         <v>78</v>
       </c>
       <c r="I5" s="8" t="str">
@@ -1441,7 +1441,7 @@
       <c r="F6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="57">
         <v>1</v>
       </c>
       <c r="H6" s="40"/>
@@ -1467,33 +1467,33 @@
       <c r="F7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="59">
-        <v>1</v>
-      </c>
-      <c r="H7" s="60"/>
+      <c r="G7" s="55">
+        <v>1</v>
+      </c>
+      <c r="H7" s="56"/>
       <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="53">
+      <c r="A8" s="49">
         <v>2009</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="57" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="54">
         <v>1</v>
       </c>
       <c r="H8" s="40"/>
@@ -1547,7 +1547,7 @@
       <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="57">
         <v>1</v>
       </c>
       <c r="H10" s="42"/>
@@ -1573,7 +1573,7 @@
       <c r="F11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="55">
         <v>1</v>
       </c>
       <c r="H11" s="42"/>
@@ -1583,23 +1583,23 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53">
+      <c r="A12" s="49">
         <v>2013</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="57" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="58">
+      <c r="G12" s="54">
         <v>1</v>
       </c>
       <c r="H12" s="42"/>
@@ -1653,7 +1653,7 @@
       <c r="F14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="57">
         <v>1</v>
       </c>
       <c r="H14" s="35"/>
@@ -1679,7 +1679,7 @@
       <c r="F15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="55">
         <v>1</v>
       </c>
       <c r="H15" s="35"/>
@@ -1689,23 +1689,23 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="53">
+      <c r="A16" s="49">
         <v>2015</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="57" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="54">
         <v>1</v>
       </c>
       <c r="H16" s="35"/>
@@ -1759,7 +1759,7 @@
       <c r="F18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="57">
         <v>1</v>
       </c>
       <c r="H18" s="37"/>
@@ -1785,7 +1785,7 @@
       <c r="F19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="55">
         <v>1</v>
       </c>
       <c r="H19" s="37"/>
@@ -1795,23 +1795,23 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="53">
+      <c r="A20" s="49">
         <v>2017</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="57" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="54">
         <v>1</v>
       </c>
       <c r="H20" s="37"/>
@@ -1865,7 +1865,7 @@
       <c r="F22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="57">
         <v>1</v>
       </c>
       <c r="H22" s="32"/>
@@ -1891,7 +1891,7 @@
       <c r="F23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="55">
         <v>0</v>
       </c>
       <c r="H23" s="32"/>
@@ -1901,23 +1901,23 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53">
+      <c r="A24" s="49">
         <v>2019</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="57" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="54">
         <v>1</v>
       </c>
       <c r="H24" s="32"/>
@@ -1971,7 +1971,7 @@
       <c r="F26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26" s="57">
         <v>1</v>
       </c>
       <c r="H26" s="33"/>
@@ -1997,7 +1997,7 @@
       <c r="F27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="59">
+      <c r="G27" s="55">
         <v>1</v>
       </c>
       <c r="H27" s="33"/>
@@ -2007,23 +2007,23 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="53">
+      <c r="A28" s="49">
         <v>2021</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="57" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="54">
         <v>1</v>
       </c>
       <c r="H28" s="33"/>
@@ -2077,7 +2077,7 @@
       <c r="F30" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="61">
+      <c r="G30" s="57">
         <v>0</v>
       </c>
       <c r="H30" s="45"/>
@@ -2103,7 +2103,7 @@
       <c r="F31" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="55">
         <v>1</v>
       </c>
       <c r="H31" s="45"/>
@@ -2113,23 +2113,23 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="53">
+      <c r="A32" s="49">
         <v>2023</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="57" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="58">
+      <c r="G32" s="54">
         <v>1</v>
       </c>
       <c r="H32" s="45"/>
@@ -2183,7 +2183,7 @@
       <c r="F34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="57">
         <v>1</v>
       </c>
       <c r="H34" s="47"/>
@@ -2209,7 +2209,7 @@
       <c r="F35" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="55">
         <v>1</v>
       </c>
       <c r="H35" s="47"/>
@@ -2250,7 +2250,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G3:G34">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2267,7 +2267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2284,7 +2284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/San_Marino/#EURO#San_Marino#Commemorative#[2004-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\San_Marino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3630037B-C127-4441-8505-E5AD7E4DF9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DCA9B8-970B-4629-B7AF-238F072DCC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="2150" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="87">
   <si>
     <t>Year</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>9th page</t>
+  </si>
+  <si>
+    <t>550th Anniversary - Birth of Michelangelo</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1286,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1892,7 +1895,7 @@
         <v>57</v>
       </c>
       <c r="G23" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="8" t="str">
@@ -2050,7 +2053,7 @@
         <v>62</v>
       </c>
       <c r="G29" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>84</v>
@@ -2078,7 +2081,7 @@
         <v>62</v>
       </c>
       <c r="G30" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="8" t="str">
@@ -2222,13 +2225,21 @@
       <c r="A36" s="5">
         <v>2025</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="18"/>
+      <c r="D36" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="G36" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="47"/>
       <c r="I36" s="8" t="str">
